--- a/biology/Botanique/Haematococcaceae/Haematococcaceae.xlsx
+++ b/biology/Botanique/Haematococcaceae/Haematococcaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Haematococcaceae est une famille d’algues vertes de l’ordre des Chlamydomonadales. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Haematococcus, composé du préfixe "haemat-", « en rapport avec le sang », et du suffixe "-cocc", « en rapport avec une graine, une baie ou un fruit », littéralement « baie sanguine ».
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (7 juillet 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (7 juillet 2018) :
 Balticola Droop
 Chlorogonium Ehrenberg
 Disceraea A.Morren &amp; C.Morren
@@ -553,10 +569,10 @@
 Hyalogonium Pascher
 Rusalka Nakada
 Stephanosphaera Cohn
-Selon BioLib                    (7 juillet 2018)[2] :
+Selon BioLib                    (7 juillet 2018) :
 Haematococcus J. Von Flotow
 Stephanosphaera Cohn
-Selon Catalogue of Life                                   (7 juillet 2018)[3] :
+Selon Catalogue of Life                                   (7 juillet 2018) :
 Balticola
 Chlorogonium
 Gungnir
@@ -565,10 +581,10 @@
 Rusalka
 Stephanosphaera
 Trochogonium
-Selon ITIS      (7 juillet 2018)[4] :
+Selon ITIS      (7 juillet 2018) :
 Haematococcus J. Von Flotow, 1844
 Stephanosphaera Cohn, 1852
-Selon World Register of Marine Species                               (7 juillet 2018)[5] :
+Selon World Register of Marine Species                               (7 juillet 2018) :
 Balticola Droop, 1956
 Chlorogonium Ehrenberg, 1837
 Gungnir T.Nakada, 2008
